--- a/GameData/DeckCardStat.xlsx
+++ b/GameData/DeckCardStat.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BalatroP\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="11_C10AF2D78FCB094EF238245DF584AE184DC52E70" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{676FC827-C1BC-43B4-B10C-B7EDD1D694CC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25404" windowHeight="13248" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25404" windowHeight="13248"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Name</t>
   </si>
@@ -207,13 +206,21 @@
   </si>
   <si>
     <t>C_2</t>
+  </si>
+  <si>
+    <t>RankGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SuitGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,7 +268,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -572,21 +579,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -602,10 +609,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -621,10 +632,14 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -640,10 +655,14 @@
       <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="F3" s="1">
+        <v>2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -659,10 +678,14 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -678,10 +701,14 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -697,10 +724,14 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -716,10 +747,14 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="F7" s="1">
+        <v>6</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -735,10 +770,14 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -754,10 +793,14 @@
       <c r="E9" s="1">
         <v>0</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -773,10 +816,14 @@
       <c r="E10" s="1">
         <v>0</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -792,10 +839,14 @@
       <c r="E11" s="1">
         <v>0</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="F11" s="1">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -811,8 +862,14 @@
       <c r="E12" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="F12" s="1">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -828,8 +885,14 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="F13" s="1">
+        <v>12</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -845,8 +908,14 @@
       <c r="E14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="F14" s="1">
+        <v>13</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -862,8 +931,14 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -879,8 +954,14 @@
       <c r="E16" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -896,8 +977,14 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <v>3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -913,8 +1000,14 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <v>4</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -930,8 +1023,14 @@
       <c r="E19" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1">
+        <v>5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -947,8 +1046,14 @@
       <c r="E20" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -964,8 +1069,14 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -981,8 +1092,14 @@
       <c r="E22" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -998,8 +1115,14 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1015,8 +1138,14 @@
       <c r="E24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1032,8 +1161,14 @@
       <c r="E25" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1">
+        <v>11</v>
+      </c>
+      <c r="G25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1049,8 +1184,14 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1066,8 +1207,14 @@
       <c r="E27" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="1">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1083,8 +1230,14 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1100,8 +1253,14 @@
       <c r="E29" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="1">
+        <v>2</v>
+      </c>
+      <c r="G29" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1117,8 +1276,14 @@
       <c r="E30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="1">
+        <v>3</v>
+      </c>
+      <c r="G30" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1134,8 +1299,14 @@
       <c r="E31" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="1">
+        <v>4</v>
+      </c>
+      <c r="G31" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1151,8 +1322,14 @@
       <c r="E32" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="1">
+        <v>5</v>
+      </c>
+      <c r="G32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1168,8 +1345,14 @@
       <c r="E33" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="1">
+        <v>6</v>
+      </c>
+      <c r="G33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1185,8 +1368,14 @@
       <c r="E34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="1">
+        <v>7</v>
+      </c>
+      <c r="G34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1202,8 +1391,14 @@
       <c r="E35" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1">
+        <v>8</v>
+      </c>
+      <c r="G35" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1219,8 +1414,14 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="1">
+        <v>9</v>
+      </c>
+      <c r="G36" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1236,8 +1437,14 @@
       <c r="E37" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="1">
+        <v>10</v>
+      </c>
+      <c r="G37" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1253,8 +1460,14 @@
       <c r="E38" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="1">
+        <v>11</v>
+      </c>
+      <c r="G38" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1270,8 +1483,14 @@
       <c r="E39" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="1">
+        <v>12</v>
+      </c>
+      <c r="G39" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1287,8 +1506,14 @@
       <c r="E40" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="1">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1304,8 +1529,14 @@
       <c r="E41" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1321,8 +1552,14 @@
       <c r="E42" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1338,8 +1575,14 @@
       <c r="E43" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="1">
+        <v>3</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1355,8 +1598,14 @@
       <c r="E44" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1">
+        <v>4</v>
+      </c>
+      <c r="G44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1372,8 +1621,14 @@
       <c r="E45" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1">
+        <v>5</v>
+      </c>
+      <c r="G45" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1389,8 +1644,14 @@
       <c r="E46" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="1">
+        <v>6</v>
+      </c>
+      <c r="G46" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1406,8 +1667,14 @@
       <c r="E47" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="1">
+        <v>7</v>
+      </c>
+      <c r="G47" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1423,8 +1690,14 @@
       <c r="E48" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="1">
+        <v>8</v>
+      </c>
+      <c r="G48" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1440,8 +1713,14 @@
       <c r="E49" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="1">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1457,8 +1736,14 @@
       <c r="E50" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="1">
+        <v>10</v>
+      </c>
+      <c r="G50" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1474,8 +1759,14 @@
       <c r="E51" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" s="1">
+        <v>11</v>
+      </c>
+      <c r="G51" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1491,8 +1782,14 @@
       <c r="E52" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" s="1">
+        <v>12</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1507,6 +1804,12 @@
       </c>
       <c r="E53" s="1">
         <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>13</v>
+      </c>
+      <c r="G53" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/DeckCardStat.xlsx
+++ b/GameData/DeckCardStat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BalatroP\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wook\Documents\GitHub\BalatroP\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>SuitGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>useNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -593,7 +597,7 @@
     <col min="6" max="6" width="15.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +619,11 @@
       <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -638,8 +645,11 @@
       <c r="G2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -661,8 +671,11 @@
       <c r="G3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -684,8 +697,11 @@
       <c r="G4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -707,8 +723,11 @@
       <c r="G5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -730,8 +749,11 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -753,8 +775,11 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -776,8 +801,11 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -799,8 +827,11 @@
       <c r="G9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -822,8 +853,11 @@
       <c r="G10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -845,8 +879,11 @@
       <c r="G11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -868,8 +905,11 @@
       <c r="G12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -891,8 +931,11 @@
       <c r="G13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -914,8 +957,11 @@
       <c r="G14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -937,8 +983,11 @@
       <c r="G15" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -960,8 +1009,11 @@
       <c r="G16" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -983,8 +1035,11 @@
       <c r="G17" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1006,8 +1061,11 @@
       <c r="G18" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1029,8 +1087,11 @@
       <c r="G19" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1052,8 +1113,11 @@
       <c r="G20" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1075,8 +1139,11 @@
       <c r="G21" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1098,8 +1165,11 @@
       <c r="G22" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1121,8 +1191,11 @@
       <c r="G23" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -1144,8 +1217,11 @@
       <c r="G24" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -1167,8 +1243,11 @@
       <c r="G25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -1190,8 +1269,11 @@
       <c r="G26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -1213,8 +1295,11 @@
       <c r="G27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -1236,8 +1321,11 @@
       <c r="G28" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -1259,8 +1347,11 @@
       <c r="G29" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -1282,8 +1373,11 @@
       <c r="G30" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -1305,8 +1399,11 @@
       <c r="G31" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1328,8 +1425,11 @@
       <c r="G32" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -1351,8 +1451,11 @@
       <c r="G33" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -1374,8 +1477,11 @@
       <c r="G34" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -1397,8 +1503,11 @@
       <c r="G35" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -1420,8 +1529,11 @@
       <c r="G36" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -1443,8 +1555,11 @@
       <c r="G37" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -1466,8 +1581,11 @@
       <c r="G38" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -1489,8 +1607,11 @@
       <c r="G39" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1512,8 +1633,11 @@
       <c r="G40" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1535,8 +1659,11 @@
       <c r="G41" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1558,8 +1685,11 @@
       <c r="G42" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -1581,8 +1711,11 @@
       <c r="G43" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -1604,8 +1737,11 @@
       <c r="G44" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -1627,8 +1763,11 @@
       <c r="G45" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -1650,8 +1789,11 @@
       <c r="G46" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1673,8 +1815,11 @@
       <c r="G47" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -1696,8 +1841,11 @@
       <c r="G48" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -1719,8 +1867,11 @@
       <c r="G49" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -1742,8 +1893,11 @@
       <c r="G50" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -1765,8 +1919,11 @@
       <c r="G51" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -1788,8 +1945,11 @@
       <c r="G52" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -1810,6 +1970,9 @@
       </c>
       <c r="G53" s="1">
         <v>4</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
